--- a/system requirements/Use Case Detailed Description - Shape.xlsx
+++ b/system requirements/Use Case Detailed Description - Shape.xlsx
@@ -9,7 +9,6 @@
     <sheet state="visible" name="Create a Chart" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Create a Goal" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Change Profile Picture" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sign In" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="127">
   <si>
     <t>Use Case Title</t>
   </si>
@@ -34,6 +33,9 @@
     <t>Level</t>
   </si>
   <si>
+    <t>User wants to follow a new account, they click on the account and select follow</t>
+  </si>
+  <si>
     <t>Stakeholders:</t>
   </si>
   <si>
@@ -43,7 +45,7 @@
     <t>Precondition:</t>
   </si>
   <si>
-    <t>Must be an account user is not already following</t>
+    <t>Must be an account user is not already following, user is on friends list</t>
   </si>
   <si>
     <t>Postcondition</t>
@@ -67,34 +69,52 @@
     <t>System</t>
   </si>
   <si>
+    <t>User searches a user name</t>
+  </si>
+  <si>
+    <t>1.1 Profile with matching username is shown</t>
+  </si>
+  <si>
     <t>User clicks on the account</t>
   </si>
   <si>
-    <t>1.1 Display account</t>
+    <t>2.1 Display account</t>
   </si>
   <si>
     <t>User clicks follow button</t>
   </si>
   <si>
-    <t>2.1 User is now following account</t>
-  </si>
-  <si>
-    <t>2.2 Notification sent to recipient of follow</t>
+    <t>3.1 Display Follow Confirmation Screen</t>
+  </si>
+  <si>
+    <t>User confirms follow</t>
+  </si>
+  <si>
+    <t>4.1 User is now following account</t>
+  </si>
+  <si>
+    <t>4.2 Notification sent to recipient of follow</t>
+  </si>
+  <si>
+    <t>4.3 Add new follow's posts to feed</t>
   </si>
   <si>
     <t>Exceptions</t>
   </si>
   <si>
-    <t>User decides not to follow and clicks off of account</t>
+    <t>User decides not to follow, selects cancel , goes back to 2.1, display account</t>
   </si>
   <si>
     <t>Send a Message</t>
   </si>
   <si>
+    <t>A user wishes to send a direct message to another user, they select the message option, enter their message and sends the message</t>
+  </si>
+  <si>
     <t>User, Message Recipient</t>
   </si>
   <si>
-    <t>User must be following recipient</t>
+    <t>Recipient must be following user</t>
   </si>
   <si>
     <t>Message notification sent</t>
@@ -127,21 +147,21 @@
     <t>3.2 Message saved to messages tab</t>
   </si>
   <si>
-    <t>If user doesnt enter text, send button not activated and cannot send empty message</t>
-  </si>
-  <si>
-    <t>User decides not to send message</t>
+    <t>If user doesnt enter text then send button not activated and cannot send empty message</t>
+  </si>
+  <si>
+    <t>if user decides not to send message then select cancel</t>
   </si>
   <si>
     <t>Create Journal Entry</t>
   </si>
   <si>
+    <t>User wants to create a new journal entry. They select the journal tab and press the "+" icon. They then create their new journal entry and either select "publish" or "save as private". If published it is treated as a new post, notification sent, added to feed. If saved as private it is saved to journal tab.</t>
+  </si>
+  <si>
     <t>User; (Followers if posted)</t>
   </si>
   <si>
-    <t>Must not currently be creating a journal entry</t>
-  </si>
-  <si>
     <t>Journal entry added to journal tab under private journal entries; journal entry posted to feed</t>
   </si>
   <si>
@@ -172,6 +192,9 @@
     <t>4.1 Journal Entry added to posts and feed</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2 Notification sent </t>
+  </si>
+  <si>
     <t>User does not add text, chart or goal, cannot be blank</t>
   </si>
   <si>
@@ -181,60 +204,69 @@
     <t>Followers that have notifications on will receive a notification of a new post</t>
   </si>
   <si>
+    <t>User cancels action, journal entry is not saved and user is returned to Journal Entry Tab</t>
+  </si>
+  <si>
+    <t>Create a Chart</t>
+  </si>
+  <si>
+    <t>User wants to create a chart. They select the goals tab and press the "+" icon. They then create their new chart and either select "publish" or "save as private". If published it is treated as a new post, notification sent, added to feed. If saved as private it is saved to charts tab.</t>
+  </si>
+  <si>
+    <t>User; Followers(If posted)</t>
+  </si>
+  <si>
+    <t>Must not currently be working on a chart</t>
+  </si>
+  <si>
+    <t>Chart added to saved charts tab; attached to a journal entry, or posted</t>
+  </si>
+  <si>
+    <t>User wants to create a chart; add a chart to a journal entry</t>
+  </si>
+  <si>
+    <t>User selects Charts Tab</t>
+  </si>
+  <si>
+    <t>1.1 Charts tab is displayed</t>
+  </si>
+  <si>
+    <t>User selects the "+" icon to create a new chart</t>
+  </si>
+  <si>
+    <t>2.1 Chart template is diplayed</t>
+  </si>
+  <si>
+    <t>User enters information into chart template</t>
+  </si>
+  <si>
+    <t>3.1 Save/ publish options are now clickable</t>
+  </si>
+  <si>
+    <t>User publishes chart</t>
+  </si>
+  <si>
+    <t>4.1 chart is added to user's posts</t>
+  </si>
+  <si>
+    <t>4.2 post notification sent</t>
+  </si>
+  <si>
+    <t>user does not enter any info(cannot be empty)</t>
+  </si>
+  <si>
+    <t>Only those with notfications for the user's posts will receive a notification</t>
+  </si>
+  <si>
     <t>User cancels action</t>
   </si>
   <si>
-    <t>Create a Chart</t>
-  </si>
-  <si>
-    <t>User; Followers(If posted)</t>
-  </si>
-  <si>
-    <t>Must not currently be working on a chart</t>
-  </si>
-  <si>
-    <t>Chart added to saved charts tab; attached to a journal entry, or posted</t>
-  </si>
-  <si>
-    <t>User wants to create a chart; add a chart to a journal entry</t>
-  </si>
-  <si>
-    <t>User selects Charts Tab</t>
-  </si>
-  <si>
-    <t>1.1 Charts tab is displayed</t>
-  </si>
-  <si>
-    <t>User selects the "+" icon to create a new chart</t>
-  </si>
-  <si>
-    <t>2.1 Chart template is diplayed</t>
-  </si>
-  <si>
-    <t>User enters information into chart template</t>
-  </si>
-  <si>
-    <t>3.1 Save/ publish options are now clickable</t>
-  </si>
-  <si>
-    <t>User publishes chart</t>
-  </si>
-  <si>
-    <t>4.1 chart is added to user's posts</t>
-  </si>
-  <si>
-    <t>4.2 post notification sent</t>
-  </si>
-  <si>
-    <t>user does not enter any info(cannot be empty)</t>
-  </si>
-  <si>
-    <t>Only those with notfications for the user's posts will receive a notification</t>
-  </si>
-  <si>
     <t>Create a Goal</t>
   </si>
   <si>
+    <t>user wants to create a new goal for themself. They select the goals tab and press the "+" icon. They then create their new goal and either select "publish" or "save as private". If published it is treated as a new post, notification sent, added to feed. If saved as private it is saved to goals tab.</t>
+  </si>
+  <si>
     <t>User;Followers(if published)</t>
   </si>
   <si>
@@ -265,19 +297,19 @@
     <t>User enters text or attaches media</t>
   </si>
   <si>
-    <t>3.1 Save button becomes usable</t>
+    <t>3.1 Save as private button becomes usable</t>
   </si>
   <si>
     <t>3.2 Publish button becomes usable</t>
   </si>
   <si>
-    <t>User publishes goal</t>
+    <t>User select publish button</t>
   </si>
   <si>
     <t>4.1 Goal added to feed</t>
   </si>
   <si>
-    <t>4.2 Notification sent</t>
+    <t>4.2 Post Notification sent</t>
   </si>
   <si>
     <t>user does not enter text or attach media(canot be empty)</t>
@@ -286,9 +318,18 @@
     <t>Notification only sent if follower has notifications enabled for the user</t>
   </si>
   <si>
+    <t>If user selects save as private button then step 4 is skipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 Goal is saved to "goals" tab </t>
+  </si>
+  <si>
     <t>Change Profile Picture</t>
   </si>
   <si>
+    <t>User wants to change or update their profile picture, they selct on their profile tab, press on their photo, select change picture and choose to select a photo from gallery. The user confirms their selection, photo is changed</t>
+  </si>
+  <si>
     <t>User has an account;user has a photo to use for their profile</t>
   </si>
   <si>
@@ -356,58 +397,13 @@
   </si>
   <si>
     <t>user cancels selection</t>
-  </si>
-  <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>User is not already signed in; user has an account</t>
-  </si>
-  <si>
-    <t>User is signed in</t>
-  </si>
-  <si>
-    <t>User wants to acess Shape</t>
-  </si>
-  <si>
-    <t>User opens Shape</t>
-  </si>
-  <si>
-    <t>1.1 Sign In page is displayed</t>
-  </si>
-  <si>
-    <t>1.2 Flashing cursor appears in username section</t>
-  </si>
-  <si>
-    <t>Enter username and password</t>
-  </si>
-  <si>
-    <t>2.1 username is shown in designated text box</t>
-  </si>
-  <si>
-    <t>2.2 password appears as ******* once typed in</t>
-  </si>
-  <si>
-    <t>User selects sign in</t>
-  </si>
-  <si>
-    <t>3.1 user is signed in</t>
-  </si>
-  <si>
-    <t>3.2 Shape opens to the users profile</t>
-  </si>
-  <si>
-    <t>User is already signed in</t>
-  </si>
-  <si>
-    <t>User entered incorrect username/password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -423,13 +419,28 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -438,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -448,11 +459,23 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +506,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -720,105 +739,130 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>1.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+      <c r="A11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -844,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -861,101 +905,103 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>2.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>3.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -965,26 +1011,26 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>2.0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>3.0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -1012,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1029,104 +1075,106 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>3.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>4.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
@@ -1135,44 +1183,44 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>4.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>4.0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -1200,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1217,105 +1265,107 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>3.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>4.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1325,35 +1375,35 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>3.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>4.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>4.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -1381,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1398,119 +1448,121 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>3.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>4.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
+      <c r="B14" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -1520,37 +1572,48 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>3.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>4.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>4.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1576,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -1593,12 +1656,14 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1607,138 +1672,138 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>2.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>3.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>4.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>5.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>6.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>7.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
@@ -1748,207 +1813,37 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>3.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>4.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>7.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="38.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
